--- a/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
+++ b/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-imagingstudy-radiology.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-16T04:56:18+00:00</t>
+    <t>2022-08-20T02:57:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -485,8 +485,8 @@
 【JP-Core仕様】Study Instance UIDは必須、その他は任意。</t>
   </si>
   <si>
-    <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](http://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).
-ImagingStudyに1つ以上のシリーズ要素が存在する場合、1つのDICOMスタディUID識別子が存在する必要がある（[DICOM PS 3.3 C.7.2]（http://dicom.nema.org/medical/dicom/current/output/を参照） chtml / part03 / sect_C.7.2.html）。</t>
+    <t>If one or more series elements are present in the ImagingStudy, then there shall be one DICOM Study UID identifier (see [DICOM PS 3.3 C.7.2](https://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html).
+ImagingStudyに1つ以上のシリーズ要素が存在する場合、1つのDICOMスタディUID識別子が存在する必要がある（[DICOM PS 3.3 C.7.2]（https://dicom.nema.org/medical/dicom/current/output/chtml/part03/sect_C.7.2.html）を参照） 。</t>
   </si>
   <si>
     <t>Event.identifier</t>
